--- a/documents_dummy/data_class.xlsx
+++ b/documents_dummy/data_class.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TA\8_6_2023\documents_dummy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TA\9_6_2023\documents_dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E070EC63-6413-4BFA-9A51-C63D228D7AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC4FF4-2498-4C55-BFB5-0F12BE1833BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75268843-03A8-4FA5-917B-37A32626A06D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>class_code</t>
   </si>
@@ -52,9 +52,6 @@
     <t>class_end_time</t>
   </si>
   <si>
-    <t>IBDA1011</t>
-  </si>
-  <si>
     <t>Pengantar Algoritma dan Pemograman</t>
   </si>
   <si>
@@ -70,15 +67,9 @@
     <t>IBDA102</t>
   </si>
   <si>
-    <t>OWO</t>
-  </si>
-  <si>
     <t>badia@badia.com, elson@elson.com, jose@jose.com</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>IBDA103</t>
   </si>
   <si>
@@ -91,20 +82,61 @@
     <t>badia@badia.com, christoper@christoper.com</t>
   </si>
   <si>
-    <t>Kelas 2</t>
-  </si>
-  <si>
-    <t>Kelas 3</t>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>NONIBDA</t>
+  </si>
+  <si>
+    <t>1 Kelas non ibda</t>
+  </si>
+  <si>
+    <t>student@gmail.com</t>
+  </si>
+  <si>
+    <t>NONIBDA2</t>
+  </si>
+  <si>
+    <t>NONIBDA3</t>
+  </si>
+  <si>
+    <t>2 Kelas non ibda</t>
+  </si>
+  <si>
+    <t>3 Kelas non ibda</t>
+  </si>
+  <si>
+    <t>IBDA101</t>
+  </si>
+  <si>
+    <t>Pak Sanga</t>
+  </si>
+  <si>
+    <t>Pak Bambang</t>
+  </si>
+  <si>
+    <t>Komtek</t>
+  </si>
+  <si>
+    <t>KomVis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,15 +159,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D24A266-F82A-47DA-BD9B-4F62DAD44D5C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,18 +516,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>0.375</v>
@@ -501,18 +536,18 @@
         <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>0.66666666666666663</v>
@@ -521,18 +556,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>0.79166666666666663</v>
@@ -541,18 +576,18 @@
         <v>0.875</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>0.375</v>
@@ -561,18 +596,18 @@
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>0.375</v>
@@ -581,10 +616,75 @@
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{4F202DDB-7639-46B0-837D-D63737A3B0FB}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{CA2E1D58-FA31-43AD-8B1B-AC1921EDB761}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{F003532A-5F03-4742-8710-D56A5320CD2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>